--- a/refer-to-noncontiguous-columns-excel-tables-start.xlsx
+++ b/refer-to-noncontiguous-columns-excel-tables-start.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27330"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E77B8D9C-55A3-499A-8D09-CAB028314137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A02590-99AF-4C3A-B75C-3B517C32643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{ED58225E-3503-4C7D-9FE1-2D914B3AF25F}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Product ID</t>
   </si>
@@ -487,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28FD7F2-D738-4AF5-A5AD-791AD6949E8A}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:E13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
@@ -500,9 +522,11 @@
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.703125" customWidth="1"/>
     <col min="5" max="5" width="11.0703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,8 +542,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -535,8 +568,20 @@
       <c r="E2">
         <v>9600</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="G2" t="str" cm="1">
+        <f t="array" ref="G2:I5">_xlfn._xlws.FILTER(_xlfn.CHOOSECOLS(sales[],
+MATCH(G1:I1,sales[#Headers], 0)),
+sales[Units Sold] &gt; 500)</f>
+        <v>Comic Con</v>
+      </c>
+      <c r="H2">
+        <v>600</v>
+      </c>
+      <c r="I2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -552,8 +597,17 @@
       <c r="E3">
         <v>8400</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="G3" t="str">
+        <v>Spring Sale</v>
+      </c>
+      <c r="H3">
+        <v>550</v>
+      </c>
+      <c r="I3">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -569,8 +623,17 @@
       <c r="E4">
         <v>13500</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="G4" t="str">
+        <v>Halloween Bash</v>
+      </c>
+      <c r="H4">
+        <v>700</v>
+      </c>
+      <c r="I4">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -586,8 +649,17 @@
       <c r="E5">
         <v>15000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.85">
+      <c r="G5" t="str">
+        <v>Spooky Sale</v>
+      </c>
+      <c r="H5">
+        <v>650</v>
+      </c>
+      <c r="I5">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -604,7 +676,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -621,7 +693,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -638,7 +710,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -655,7 +727,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -672,7 +744,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -689,7 +761,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -706,7 +778,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>2006</v>
       </c>
